--- a/Work breakdown structure.xlsx
+++ b/Work breakdown structure.xlsx
@@ -1,184 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Folha1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>1.1 Find 15 design patterns</t>
+  </si>
+  <si>
+    <t>1.2 Find 15 code smells</t>
+  </si>
+  <si>
+    <t>1.3 Review 15 code smells</t>
+  </si>
+  <si>
+    <t>1.4 Review 15 design patterns</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF3D85C6"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -319,24 +368,169 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="29.13"/>
+    <col customWidth="1" min="3" max="5" width="25.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="24.0" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="30.0" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" ht="30.0" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" ht="30.0" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" ht="30.0" customHeight="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" ht="30.0" customHeight="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="30.0" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>